--- a/data/case1/14/P1_2.xlsx
+++ b/data/case1/14/P1_2.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.33598334013737485</v>
+        <v>0.46865769738307961</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.009999999546920435</v>
+        <v>-0.0099999996771309441</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999995402276767</v>
+        <v>-0.008999999668443337</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.011999999872372769</v>
+        <v>-0.01199999990735634</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999995490596092</v>
+        <v>-0.0059999996748691942</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.005999999537131373</v>
+        <v>-0.0059999996673241185</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.029342456614346091</v>
+        <v>-0.019999999603568241</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999435872162</v>
+        <v>-0.019999999602110741</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.034511056999571466</v>
+        <v>-0.005999999664513922</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999995125323835</v>
+        <v>-0.0059999996643753661</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.014682440070796332</v>
+        <v>0.054667101718045785</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999995104211834</v>
+        <v>-0.0059999996630351049</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999995020483254</v>
+        <v>-0.0059999996577113635</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999460056365</v>
+        <v>-0.011999999628996783</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999994974795356</v>
+        <v>-0.0059999996547466239</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999994956350111</v>
+        <v>-0.0059999996535355926</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999994931976275</v>
+        <v>-0.0059999996519524146</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999994728406918</v>
+        <v>-0.0089999996380356606</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999995523171172</v>
+        <v>-0.083388802885858482</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999995413023726</v>
+        <v>-0.0089999996773251212</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.048557193314826108</v>
+        <v>-0.0089999996768446167</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999995382772369</v>
+        <v>-0.0089999996764866808</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999995357947782</v>
+        <v>-0.06218577027784189</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999999311401304</v>
+        <v>-0.04199999950367328</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999999307368974</v>
+        <v>-0.087777373258987268</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999995362822744</v>
+        <v>-0.0059999996665389688</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999995350668023</v>
+        <v>-0.0059999996653621324</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999995306343479</v>
+        <v>-0.0059999996611006523</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.033787278766599371</v>
+        <v>-0.011999999631409963</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999432415816</v>
+        <v>-0.019999999594255691</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999460208358</v>
+        <v>0.01745964040600434</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999419895943</v>
+        <v>-0.020999999588400264</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999995181083676</v>
+        <v>-0.0059999996557786872</v>
       </c>
     </row>
   </sheetData>
